--- a/Module-2_Logistic Regression/Model Evaluation Formula - Confusion Matrix.xlsx
+++ b/Module-2_Logistic Regression/Model Evaluation Formula - Confusion Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powergrid1989-my.sharepoint.com/personal/60003871_powergrid_in/Documents/CC/3_ML-AI Course/3_Study Material/Course_3-Machine Learning-1/Module-2_Logistic Regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powergrid1989-my.sharepoint.com/personal/60003871_powergrid_in/Documents/CC/3_ML-AI Course/3_Study/Course-3_MachineLearning-1/MachineLearning-1/Module-2_Logistic Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="11_F25DC773A252ABDACC10484819DE67725ADE590C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B652B449-5B46-43FF-9C8D-BA3F99BBEAB6}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC10484819DE67725ADE590C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D5EB8F-22B5-4E80-BE35-0F9E530B7B14}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24150" windowHeight="15015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Actual</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Predicted Label</t>
+  </si>
+  <si>
+    <t>Sensitivity, TPR, Recall</t>
+  </si>
+  <si>
+    <t>Precision, PPV</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,24 +549,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -570,37 +604,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,10 +1808,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="37"/>
+      <c r="D4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8">
@@ -1811,16 +1820,16 @@
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
@@ -1843,7 +1852,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
@@ -1863,41 +1872,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" s="11" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="12" t="str">
         <f>E7</f>
         <v>TP</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="43">
         <f>I7/(I7+H7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="27"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F14" s="32"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="44"/>
+    </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="12" t="str">
@@ -1907,75 +1919,84 @@
       <c r="H16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="43">
         <f>H6/(H6+I6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="27"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="44"/>
+    </row>
     <row r="19" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>E6</f>
         <v>FP</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="31" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="43">
         <f>I6/(I6+H6)</f>
         <v>0.4</v>
       </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="27"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F20" s="40"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="44"/>
+    </row>
     <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="12" t="str">
         <f>E7</f>
         <v>TP</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="41" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="43">
         <f>I7/(I7+I6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="27"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F23" s="42"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="44"/>
+    </row>
     <row r="25" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="12" t="str">
@@ -1985,68 +2006,81 @@
       <c r="H25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="43">
         <f>H6/(H6+H7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="27"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="44"/>
+    </row>
     <row r="28" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="F28" s="31" t="s">
+        <v>9</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="43">
         <f>I7/(I7+I6)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="25"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F29" s="40"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="44"/>
+    </row>
     <row r="31" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="41" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="43">
         <f>I7/(I7+H7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="25"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F32" s="42"/>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="44"/>
+    </row>
     <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2058,13 +2092,13 @@
       <c r="H34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="43">
         <f>(H6+I7)/(H6+I6+I7+H7)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="25"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="13" t="s">
         <v>33</v>
       </c>
@@ -2073,12 +2107,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D16:D17"/>
+  <mergeCells count="16">
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D34:D35"/>
@@ -2089,6 +2118,12 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2099,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DE4E3-3FBC-4ECF-8666-B79FF5C7C69C}">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2114,327 +2149,327 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="27">
         <v>0.45</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="27">
         <v>0.5</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="27">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="B4" s="24">
         <v>1001</v>
       </c>
-      <c r="C4" s="38">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
         <v>0.34</v>
       </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
         <f>IF($D4&gt;F$3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="25">
         <f>IF($D4&gt;G$3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="25">
         <f t="shared" ref="H4:I4" si="0">IF($D4&gt;H$3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="38">
+      <c r="B5" s="24">
         <v>1002</v>
       </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39">
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
         <f t="shared" ref="F5:I13" si="1">IF($D5&gt;F$3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="38">
+      <c r="B6" s="24">
         <v>1003</v>
       </c>
-      <c r="C6" s="38">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
         <v>0.79</v>
       </c>
-      <c r="E6" s="38">
-        <v>1</v>
-      </c>
-      <c r="F6" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="39">
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="38">
+      <c r="B7" s="24">
         <v>1004</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
         <v>0.68</v>
       </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="38">
+      <c r="B8" s="24">
         <v>1005</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
         <v>0.21</v>
       </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="39">
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="38">
+      <c r="B9" s="24">
         <v>1006</v>
       </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
         <v>0.04</v>
       </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="39">
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
         <f>IF($D9&gt;I$3,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="38">
+      <c r="B10" s="24">
         <v>1007</v>
       </c>
-      <c r="C10" s="38">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
         <v>0.48</v>
       </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="39">
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="38">
+      <c r="B11" s="24">
         <v>1008</v>
       </c>
-      <c r="C11" s="38">
-        <v>1</v>
-      </c>
-      <c r="D11" s="38">
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
         <v>0.64</v>
       </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
         <f>IF($D11&gt;G$3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="39">
+      <c r="H11" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="38">
+      <c r="B12" s="24">
         <v>1009</v>
       </c>
-      <c r="C12" s="38">
-        <v>0</v>
-      </c>
-      <c r="D12" s="38">
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
         <v>0.61</v>
       </c>
-      <c r="E12" s="38">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="39">
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+      <c r="B13" s="24">
         <v>1010</v>
       </c>
-      <c r="C13" s="38">
-        <v>1</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
         <v>0.86</v>
       </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2457,11 +2492,11 @@
       <c r="C18" s="1">
         <v>0.45</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$F$4:$F$13,0)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$F$4:$F$13,1)</f>
         <v>2</v>
       </c>
@@ -2471,7 +2506,7 @@
       <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="28">
         <v>0.8</v>
       </c>
       <c r="J18">
@@ -2483,35 +2518,35 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="39">
+      <c r="D19" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$F$4:$F$13,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$F$4:$F$13,1)</f>
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="43"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.5</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$G$4:$G$13,0)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$G$4:$G$13,1)</f>
         <v>2</v>
       </c>
@@ -2521,7 +2556,7 @@
       <c r="H21" s="19">
         <v>0.6</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="28">
         <v>0.6</v>
       </c>
       <c r="J21">
@@ -2533,17 +2568,17 @@
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="39">
+      <c r="D22" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$G$4:$G$13,0)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$G$4:$G$13,1)</f>
         <v>4</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="43"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -2551,17 +2586,17 @@
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="43"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$H$4:$H$13,0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$H$4:$H$13,1)</f>
         <v>2</v>
       </c>
@@ -2571,7 +2606,7 @@
       <c r="H24" s="19">
         <v>0.4</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="28">
         <v>0.4</v>
       </c>
       <c r="J24">
@@ -2583,17 +2618,17 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="39">
+      <c r="D25" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$H$4:$H$13,0)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$H$4:$H$13,1)</f>
         <v>4</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
@@ -2601,17 +2636,17 @@
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="43"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>0.6</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$I$4:$I$13,0)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="25">
         <f>COUNTIFS($C$4:$C$13,0,$I$4:$I$13,1)</f>
         <v>2</v>
       </c>
@@ -2621,7 +2656,7 @@
       <c r="H27" s="19">
         <v>0.7142857142857143</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="28">
         <v>0.66666666666666663</v>
       </c>
       <c r="J27">
@@ -2633,22 +2668,22 @@
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-      <c r="D28" s="39">
+      <c r="D28" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$I$4:$I$13,0)</f>
         <v>2</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="25">
         <f>COUNTIFS($C$4:$C$13,1,$I$4:$I$13,1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="43"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="43"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="18" t="s">
@@ -2657,7 +2692,7 @@
       <c r="H30" s="19">
         <v>1</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="28">
         <v>0.75</v>
       </c>
       <c r="J30">
@@ -2670,12 +2705,12 @@
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="43"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="43"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="18" t="s">
@@ -2684,7 +2719,7 @@
       <c r="H33" s="23">
         <v>0.7142857142857143</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="28">
         <v>0.66666666666666663</v>
       </c>
       <c r="J33">
@@ -2697,12 +2732,12 @@
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="43"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="43"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="18" t="s">
@@ -2711,7 +2746,7 @@
       <c r="H36" s="23">
         <v>1</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="28">
         <v>0.8</v>
       </c>
       <c r="J36">
@@ -2724,12 +2759,12 @@
     <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="43"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="18" t="s">
@@ -2738,7 +2773,7 @@
       <c r="H39" s="23">
         <v>0.8</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="28">
         <v>0.7</v>
       </c>
       <c r="J39">
